--- a/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -5544,7 +5544,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>91</v>
@@ -6832,10 +6832,10 @@
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>81</v>
@@ -7028,7 +7028,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>91</v>
@@ -7060,10 +7060,10 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>81</v>
